--- a/Login.xlsx
+++ b/Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SarikaAwate\Katalon Studio\RevOne-EPIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73A345D9-993F-457A-975F-06C89E6685FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9066F41-93C5-45D5-ABC6-6B5D49759130}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5650" xr2:uid="{1A17ADEA-CB2E-4486-8B8C-8990D72D7A59}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Email</t>
   </si>
@@ -33,16 +33,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>admin@bpktechmail.com</t>
-  </si>
-  <si>
-    <t>1q2w3E*</t>
-  </si>
-  <si>
     <t>sarika.awate@veltris.com</t>
   </si>
   <si>
     <t>Admin@123</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -397,7 +394,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -416,18 +413,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
